--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251102_201330.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251102_201330.xlsx
@@ -4407,7 +4407,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
